--- a/biology/Biologie cellulaire et moléculaire/Actinonine/Actinonine.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Actinonine/Actinonine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'actinonine est un agent antibactérien naturel qui a démontré une activité antitumorale[1].
-Il a été démontré que l'actiononine inhibe l'enzyme peptide déformylase, essentielle chez les bactéries[2].
+L'actinonine est un agent antibactérien naturel qui a démontré une activité antitumorale.
+Il a été démontré que l'actiononine inhibe l'enzyme peptide déformylase, essentielle chez les bactéries.
 ↑ Chen et Patel, « Actinonin, a Naturally Occurring Antibacterial Agent, Is a Potent Deformylase Inhibitor », Biochemistry, vol. 39, no 6,‎ 2000, p. 1256–62 (PMID 10684604, DOI 10.1021/bi992245y)
 ↑ (en) Yoon, Kim, Lee et Kim, « Crystal structure of peptide deformylase from Staphylococcus aureus in complex with actinonin, a naturally occurring antibacterial agent », Proteins: Structure, Function, and Bioinformatics, vol. 57, no 3,‎ 2004, p. 639–642 (ISSN 1097-0134, PMID 15382235, DOI 10.1002/prot.20231, S2CID 42929776, lire en ligne)
  Portail de la biologie cellulaire et moléculaire                     </t>
